--- a/google_maps_data.xlsx
+++ b/google_maps_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,505 +524,85 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Downtown Boston Realty</t>
+          <t>Jacob Realty</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>151 Tremont St, Boston, MA 02111</t>
+          <t>279 Newbury St #2, Boston, MA 02116</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>downtownbostonrealty.com</t>
+          <t>jacobrealty.com</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(617) 921-4006</t>
+          <t>(617) 236-4048</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>55</v>
+        <v>334</v>
       </c>
       <c r="F4" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mike Urban, Boston Real Estate</t>
+          <t>Downtown Boston Realty</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1 Beacon St #15, Boston, MA 02108</t>
+          <t>151 Tremont St, Boston, MA 02111</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>listingsinboston.com</t>
+          <t>downtownbostonrealty.com</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(617) 686-9299</t>
+          <t>(617) 921-4006</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jacob Realty</t>
+          <t>The Charles Realty</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>279 Newbury St #2, Boston, MA 02116</t>
+          <t>257 Newbury St # 2, Boston, MA 02116</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>jacobrealty.com</t>
+          <t>thecharlesrealty.com</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(617) 236-4048</t>
+          <t>(617) 236-0353</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="F6" t="n">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>The Bulfinch Team of Douglas Elliman Real Estate</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>255 Newbury St # 1, Boston, MA 02116</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>bulfinchbostonrealty.com</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>(617) 247-3177</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>58</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Cabot and Company Real Estate</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>213 Newbury St, Boston, MA 02116</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>cabotandcompany.com</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>(617) 262-6200</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>129</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CENTURY 21 Revolution</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>625 Massachusetts Ave 2nd floor, Cambridge, MA 02139</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>c21revolution.com</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>(617) 982-7175</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>49</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Boston Proper Real Estate</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>49 Gloucester St, Boston, MA 02115</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>bostonproperrealestate.com</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>(617) 262-4500</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>37</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>The Agency Boston</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>435A Columbus Ave, Boston, MA 02116</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ericrollo.com</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>(617) 356-7605</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>37</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Ford Realty Inc</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>137 Charles St, Boston, MA 02114</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>bostonreb.com</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>(617) 720-5454</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>63</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Real Estate Randy</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>126 Newbury St 2nd Floor, Boston, MA 02116</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>compass.com</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>(781) 367-1598</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>71</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Darnell Billings, Realtor, Keller Williams Realty Boston-Metro</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>607 Boylston St 5th floor, Boston, MA 02116</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>darnellrealty.kw.com</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>(781) 400-6767</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>31</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Steven Cohen Team of Keller Williams Realty</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1180 Washington St Unit #103, Boston, MA 02118</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>stevencohenteam.com</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>(617) 861-3636</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>193</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Carlisle Group Boston Real Estate</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>126 Newbury St 5th floor, Boston, MA 02116</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>carlislegrouprealestate.com</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>(617) 699-0033</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>51</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Ellen + Janis @ Denman Drapkin Group | Compass</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>126 Newbury St, Boston, MA 02116</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ellenandjanisrealestate.com</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>(617) 971-8940</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>68</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Nexus Real Estate Group</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>399 Boylston St Suite 200, Boston, MA 02116</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>nexusreal.estate</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>(617) 642-0874</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>90</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Advantage Real Estate</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1066 Commonwealth Ave, Boston, MA 02215</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>are-bos.com</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>(617) 600-6780</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>40</v>
-      </c>
-      <c r="F19" t="n">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Full Circle Realty</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>607 Boylston St #203, Boston, MA 02116</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>thefcrgroup.com</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>(617) 721-0947</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>78</v>
-      </c>
-      <c r="F20" t="n">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Donnelly + Co. Boston Real Estate</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>129 Newbury St Suite 202, Boston, MA 02116</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>donnellyandco.com</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>(617) 982-0160</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>19</v>
-      </c>
-      <c r="F21" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
     </row>
   </sheetData>

--- a/google_maps_data.xlsx
+++ b/google_maps_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,142 +468,226 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Channing Real Estate Inc.</t>
+          <t>Beaver's Bend Mining Company</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1776 Massachusetts Ave, Cambridge, MA 02140</t>
+          <t>9221 N US Hwy 259, Broken Bow, OK 74728</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>channingrealestate.com</t>
+          <t>beaversbendminingcompany.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(617) 818-5040</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>11</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.9</v>
-      </c>
+          <t>(580) 494-6102</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Remmes &amp; Co. Boston Real Estate</t>
+          <t>Zircon Mine</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20 Park Plaza Suite 400, Boston, MA 02116</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>remmesco.com</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>(617) 398-0015</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
-      </c>
+          <t>Indiahoma, OK 73552</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jacob Realty</t>
+          <t>Mines Department</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>279 Newbury St #2, Boston, MA 02116</t>
+          <t>2915 N Classen Blvd, Oklahoma City, OK 73106</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>jacobrealty.com</t>
+          <t>ok.gov</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(617) 236-4048</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>334</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4.8</v>
-      </c>
+          <t>(405) 427-3859</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Downtown Boston Realty</t>
+          <t>Ouro Mining</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>151 Tremont St, Boston, MA 02111</t>
+          <t>17142 OK-128, Heavener, OK 74937</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>downtownbostonrealty.com</t>
+          <t>ouromininginc.com</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(617) 921-4006</t>
+          <t>(918) 653-7488</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The Charles Realty</t>
+          <t>Mine Shaft Rocks and Minerals</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>257 Newbury St # 2, Boston, MA 02116</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>thecharlesrealty.com</t>
-        </is>
-      </c>
+          <t>1000 Rodeo Dr, Comanche, OK 73529</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(617) 236-0353</t>
+          <t>(580) 606-0842</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F6" t="n">
-        <v>4.7</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Viking Minerals</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>101 N Robinson Ave #940, Oklahoma City, OK 73102</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>viking-minerals.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>(405) 606-7424</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>The Diamond Mine</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1010 E Main St, Antlers, OK 74523</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>(580) 298-3649</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Inglesrud Corporation</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5104 N Francis Ave, Oklahoma City, OK 73118</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>(405) 429-7928</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Starke Ehre Inc.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>6517 SW 57th St, Oklahoma City, OK 73179</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>accessdownhole.com</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>(405) 200-6570</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Tulsa Minerals Inc</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>7136 S Yale Ave Ste #300, Tulsa, OK 74136</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>(918) 492-3838</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
